--- a/document/陌匠App问题汇总1107.xlsx
+++ b/document/陌匠App问题汇总1107.xlsx
@@ -135,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -165,15 +165,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,99 +261,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,49 +316,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,133 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,71 +521,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,12 +551,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,141 +642,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1127,97 +1124,97 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="52.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="34.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="27" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1225,96 +1222,96 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="27" spans="1:4">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:4">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="27" spans="1:3">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
@@ -1322,13 +1319,13 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
